--- a/src/test/resources/output/output.xlsx
+++ b/src/test/resources/output/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="22">
   <si>
     <t>ARTICLE</t>
   </si>
@@ -35,7 +35,27 @@
     <t>INVALID ARTICLE</t>
   </si>
   <si>
-    <t>12323ELDAK</t>
+    <t>12013896B</t>
+  </si>
+  <si>
+    <t>Уплотняющее кольцо, коленчатый вал</t>
+  </si>
+  <si>
+    <t>Corteco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                    316,42 ₽
+                                                                    </t>
+  </si>
+  <si>
+    <t>AG635</t>
+  </si>
+  <si>
+    <t>Деталь</t>
+  </si>
+  <si>
+    <t>GAZ</t>
   </si>
   <si>
     <t>19347943</t>
@@ -47,8 +67,9 @@
     <t>DelcoParts</t>
   </si>
   <si>
-    <t>Цена
-2 891,70 ₽</t>
+    <t xml:space="preserve">
+                                                    2 891,70 ₽
+                                                                    </t>
   </si>
   <si>
     <t>PP1492</t>
@@ -61,7 +82,7 @@
 acdelco  </t>
   </si>
   <si>
-    <t>FATAL PARSER ERROR, CHECK ARTICLE_NUM</t>
+    <t>ARTICLE SHOULD NOT BE NULL OR EMPTY</t>
   </si>
 </sst>
 </file>
@@ -106,7 +127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E374"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,56 +165,66 @@
       <c r="A3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="D3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="E3" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="0"/>
       <c r="B6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C6" s="0"/>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>20</v>
+      </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0"/>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
@@ -202,7 +233,7 @@
     <row r="8">
       <c r="A8" s="0"/>
       <c r="B8" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -211,7 +242,7 @@
     <row r="9">
       <c r="A9" s="0"/>
       <c r="B9" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
@@ -220,7 +251,7 @@
     <row r="10">
       <c r="A10" s="0"/>
       <c r="B10" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
@@ -229,7 +260,7 @@
     <row r="11">
       <c r="A11" s="0"/>
       <c r="B11" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
@@ -238,7 +269,7 @@
     <row r="12">
       <c r="A12" s="0"/>
       <c r="B12" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
@@ -247,7 +278,7 @@
     <row r="13">
       <c r="A13" s="0"/>
       <c r="B13" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -256,7 +287,7 @@
     <row r="14">
       <c r="A14" s="0"/>
       <c r="B14" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
@@ -265,7 +296,7 @@
     <row r="15">
       <c r="A15" s="0"/>
       <c r="B15" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
@@ -274,7 +305,7 @@
     <row r="16">
       <c r="A16" s="0"/>
       <c r="B16" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
@@ -283,7 +314,7 @@
     <row r="17">
       <c r="A17" s="0"/>
       <c r="B17" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
@@ -292,7 +323,7 @@
     <row r="18">
       <c r="A18" s="0"/>
       <c r="B18" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
@@ -301,7 +332,7 @@
     <row r="19">
       <c r="A19" s="0"/>
       <c r="B19" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
@@ -310,7 +341,7 @@
     <row r="20">
       <c r="A20" s="0"/>
       <c r="B20" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
@@ -319,7 +350,7 @@
     <row r="21">
       <c r="A21" s="0"/>
       <c r="B21" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
@@ -328,7 +359,7 @@
     <row r="22">
       <c r="A22" s="0"/>
       <c r="B22" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
@@ -337,7 +368,7 @@
     <row r="23">
       <c r="A23" s="0"/>
       <c r="B23" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
@@ -346,7 +377,7 @@
     <row r="24">
       <c r="A24" s="0"/>
       <c r="B24" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
@@ -355,7 +386,7 @@
     <row r="25">
       <c r="A25" s="0"/>
       <c r="B25" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
@@ -364,7 +395,7 @@
     <row r="26">
       <c r="A26" s="0"/>
       <c r="B26" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -373,7 +404,7 @@
     <row r="27">
       <c r="A27" s="0"/>
       <c r="B27" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" s="0"/>
@@ -382,7 +413,7 @@
     <row r="28">
       <c r="A28" s="0"/>
       <c r="B28" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C28" s="0"/>
       <c r="D28" s="0"/>
@@ -391,7 +422,7 @@
     <row r="29">
       <c r="A29" s="0"/>
       <c r="B29" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29" s="0"/>
       <c r="D29" s="0"/>
@@ -400,7 +431,7 @@
     <row r="30">
       <c r="A30" s="0"/>
       <c r="B30" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
@@ -409,7 +440,7 @@
     <row r="31">
       <c r="A31" s="0"/>
       <c r="B31" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
@@ -418,7 +449,7 @@
     <row r="32">
       <c r="A32" s="0"/>
       <c r="B32" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C32" s="0"/>
       <c r="D32" s="0"/>
@@ -427,7 +458,7 @@
     <row r="33">
       <c r="A33" s="0"/>
       <c r="B33" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
@@ -436,7 +467,7 @@
     <row r="34">
       <c r="A34" s="0"/>
       <c r="B34" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" s="0"/>
@@ -445,7 +476,7 @@
     <row r="35">
       <c r="A35" s="0"/>
       <c r="B35" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" s="0"/>
@@ -454,7 +485,7 @@
     <row r="36">
       <c r="A36" s="0"/>
       <c r="B36" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" s="0"/>
@@ -463,7 +494,7 @@
     <row r="37">
       <c r="A37" s="0"/>
       <c r="B37" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
@@ -472,7 +503,7 @@
     <row r="38">
       <c r="A38" s="0"/>
       <c r="B38" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C38" s="0"/>
       <c r="D38" s="0"/>
@@ -481,7 +512,7 @@
     <row r="39">
       <c r="A39" s="0"/>
       <c r="B39" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" s="0"/>
@@ -490,7 +521,7 @@
     <row r="40">
       <c r="A40" s="0"/>
       <c r="B40" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" s="0"/>
@@ -499,7 +530,7 @@
     <row r="41">
       <c r="A41" s="0"/>
       <c r="B41" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" s="0"/>
@@ -508,7 +539,7 @@
     <row r="42">
       <c r="A42" s="0"/>
       <c r="B42" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
@@ -517,7 +548,7 @@
     <row r="43">
       <c r="A43" s="0"/>
       <c r="B43" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" s="0"/>
@@ -526,7 +557,7 @@
     <row r="44">
       <c r="A44" s="0"/>
       <c r="B44" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C44" s="0"/>
       <c r="D44" s="0"/>
@@ -535,7 +566,7 @@
     <row r="45">
       <c r="A45" s="0"/>
       <c r="B45" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" s="0"/>
@@ -544,7 +575,7 @@
     <row r="46">
       <c r="A46" s="0"/>
       <c r="B46" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
@@ -553,7 +584,7 @@
     <row r="47">
       <c r="A47" s="0"/>
       <c r="B47" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
@@ -562,7 +593,7 @@
     <row r="48">
       <c r="A48" s="0"/>
       <c r="B48" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
@@ -571,7 +602,7 @@
     <row r="49">
       <c r="A49" s="0"/>
       <c r="B49" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C49" s="0"/>
       <c r="D49" s="0"/>
@@ -580,7 +611,7 @@
     <row r="50">
       <c r="A50" s="0"/>
       <c r="B50" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C50" s="0"/>
       <c r="D50" s="0"/>
@@ -589,7 +620,7 @@
     <row r="51">
       <c r="A51" s="0"/>
       <c r="B51" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C51" s="0"/>
       <c r="D51" s="0"/>
@@ -598,7 +629,7 @@
     <row r="52">
       <c r="A52" s="0"/>
       <c r="B52" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C52" s="0"/>
       <c r="D52" s="0"/>
@@ -607,7 +638,7 @@
     <row r="53">
       <c r="A53" s="0"/>
       <c r="B53" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
@@ -616,7 +647,7 @@
     <row r="54">
       <c r="A54" s="0"/>
       <c r="B54" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C54" s="0"/>
       <c r="D54" s="0"/>
@@ -625,7 +656,7 @@
     <row r="55">
       <c r="A55" s="0"/>
       <c r="B55" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C55" s="0"/>
       <c r="D55" s="0"/>
@@ -634,7 +665,7 @@
     <row r="56">
       <c r="A56" s="0"/>
       <c r="B56" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C56" s="0"/>
       <c r="D56" s="0"/>
@@ -643,7 +674,7 @@
     <row r="57">
       <c r="A57" s="0"/>
       <c r="B57" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C57" s="0"/>
       <c r="D57" s="0"/>
@@ -652,7 +683,7 @@
     <row r="58">
       <c r="A58" s="0"/>
       <c r="B58" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C58" s="0"/>
       <c r="D58" s="0"/>
@@ -661,7 +692,7 @@
     <row r="59">
       <c r="A59" s="0"/>
       <c r="B59" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C59" s="0"/>
       <c r="D59" s="0"/>
@@ -670,7 +701,7 @@
     <row r="60">
       <c r="A60" s="0"/>
       <c r="B60" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C60" s="0"/>
       <c r="D60" s="0"/>
@@ -679,7 +710,7 @@
     <row r="61">
       <c r="A61" s="0"/>
       <c r="B61" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C61" s="0"/>
       <c r="D61" s="0"/>
@@ -688,7 +719,7 @@
     <row r="62">
       <c r="A62" s="0"/>
       <c r="B62" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C62" s="0"/>
       <c r="D62" s="0"/>
@@ -697,7 +728,7 @@
     <row r="63">
       <c r="A63" s="0"/>
       <c r="B63" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C63" s="0"/>
       <c r="D63" s="0"/>
@@ -706,7 +737,7 @@
     <row r="64">
       <c r="A64" s="0"/>
       <c r="B64" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C64" s="0"/>
       <c r="D64" s="0"/>
@@ -715,7 +746,7 @@
     <row r="65">
       <c r="A65" s="0"/>
       <c r="B65" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C65" s="0"/>
       <c r="D65" s="0"/>
@@ -724,7 +755,7 @@
     <row r="66">
       <c r="A66" s="0"/>
       <c r="B66" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" s="0"/>
@@ -733,7 +764,7 @@
     <row r="67">
       <c r="A67" s="0"/>
       <c r="B67" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" s="0"/>
@@ -742,7 +773,7 @@
     <row r="68">
       <c r="A68" s="0"/>
       <c r="B68" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" s="0"/>
@@ -751,7 +782,7 @@
     <row r="69">
       <c r="A69" s="0"/>
       <c r="B69" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" s="0"/>
@@ -760,7 +791,7 @@
     <row r="70">
       <c r="A70" s="0"/>
       <c r="B70" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C70" s="0"/>
       <c r="D70" s="0"/>
@@ -769,7 +800,7 @@
     <row r="71">
       <c r="A71" s="0"/>
       <c r="B71" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
@@ -778,7 +809,7 @@
     <row r="72">
       <c r="A72" s="0"/>
       <c r="B72" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C72" s="0"/>
       <c r="D72" s="0"/>
@@ -787,7 +818,7 @@
     <row r="73">
       <c r="A73" s="0"/>
       <c r="B73" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C73" s="0"/>
       <c r="D73" s="0"/>
@@ -796,7 +827,7 @@
     <row r="74">
       <c r="A74" s="0"/>
       <c r="B74" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C74" s="0"/>
       <c r="D74" s="0"/>
@@ -805,7 +836,7 @@
     <row r="75">
       <c r="A75" s="0"/>
       <c r="B75" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C75" s="0"/>
       <c r="D75" s="0"/>
@@ -814,7 +845,7 @@
     <row r="76">
       <c r="A76" s="0"/>
       <c r="B76" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C76" s="0"/>
       <c r="D76" s="0"/>
@@ -823,7 +854,7 @@
     <row r="77">
       <c r="A77" s="0"/>
       <c r="B77" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C77" s="0"/>
       <c r="D77" s="0"/>
@@ -832,7 +863,7 @@
     <row r="78">
       <c r="A78" s="0"/>
       <c r="B78" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C78" s="0"/>
       <c r="D78" s="0"/>
@@ -841,7 +872,7 @@
     <row r="79">
       <c r="A79" s="0"/>
       <c r="B79" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C79" s="0"/>
       <c r="D79" s="0"/>
@@ -850,7 +881,7 @@
     <row r="80">
       <c r="A80" s="0"/>
       <c r="B80" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C80" s="0"/>
       <c r="D80" s="0"/>
@@ -859,7 +890,7 @@
     <row r="81">
       <c r="A81" s="0"/>
       <c r="B81" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C81" s="0"/>
       <c r="D81" s="0"/>
@@ -868,7 +899,7 @@
     <row r="82">
       <c r="A82" s="0"/>
       <c r="B82" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C82" s="0"/>
       <c r="D82" s="0"/>
@@ -877,7 +908,7 @@
     <row r="83">
       <c r="A83" s="0"/>
       <c r="B83" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C83" s="0"/>
       <c r="D83" s="0"/>
@@ -886,7 +917,7 @@
     <row r="84">
       <c r="A84" s="0"/>
       <c r="B84" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C84" s="0"/>
       <c r="D84" s="0"/>
@@ -895,7 +926,7 @@
     <row r="85">
       <c r="A85" s="0"/>
       <c r="B85" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C85" s="0"/>
       <c r="D85" s="0"/>
@@ -904,7 +935,7 @@
     <row r="86">
       <c r="A86" s="0"/>
       <c r="B86" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C86" s="0"/>
       <c r="D86" s="0"/>
@@ -913,7 +944,7 @@
     <row r="87">
       <c r="A87" s="0"/>
       <c r="B87" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C87" s="0"/>
       <c r="D87" s="0"/>
@@ -922,7 +953,7 @@
     <row r="88">
       <c r="A88" s="0"/>
       <c r="B88" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C88" s="0"/>
       <c r="D88" s="0"/>
@@ -931,7 +962,7 @@
     <row r="89">
       <c r="A89" s="0"/>
       <c r="B89" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C89" s="0"/>
       <c r="D89" s="0"/>
@@ -940,7 +971,7 @@
     <row r="90">
       <c r="A90" s="0"/>
       <c r="B90" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C90" s="0"/>
       <c r="D90" s="0"/>
@@ -949,7 +980,7 @@
     <row r="91">
       <c r="A91" s="0"/>
       <c r="B91" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C91" s="0"/>
       <c r="D91" s="0"/>
@@ -958,7 +989,7 @@
     <row r="92">
       <c r="A92" s="0"/>
       <c r="B92" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C92" s="0"/>
       <c r="D92" s="0"/>
@@ -967,7 +998,7 @@
     <row r="93">
       <c r="A93" s="0"/>
       <c r="B93" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C93" s="0"/>
       <c r="D93" s="0"/>
@@ -976,7 +1007,7 @@
     <row r="94">
       <c r="A94" s="0"/>
       <c r="B94" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C94" s="0"/>
       <c r="D94" s="0"/>
@@ -985,7 +1016,7 @@
     <row r="95">
       <c r="A95" s="0"/>
       <c r="B95" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C95" s="0"/>
       <c r="D95" s="0"/>
@@ -994,7 +1025,7 @@
     <row r="96">
       <c r="A96" s="0"/>
       <c r="B96" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C96" s="0"/>
       <c r="D96" s="0"/>
@@ -1003,7 +1034,7 @@
     <row r="97">
       <c r="A97" s="0"/>
       <c r="B97" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C97" s="0"/>
       <c r="D97" s="0"/>
@@ -1012,7 +1043,7 @@
     <row r="98">
       <c r="A98" s="0"/>
       <c r="B98" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C98" s="0"/>
       <c r="D98" s="0"/>
@@ -1021,7 +1052,7 @@
     <row r="99">
       <c r="A99" s="0"/>
       <c r="B99" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C99" s="0"/>
       <c r="D99" s="0"/>
@@ -1030,7 +1061,7 @@
     <row r="100">
       <c r="A100" s="0"/>
       <c r="B100" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C100" s="0"/>
       <c r="D100" s="0"/>
@@ -1039,7 +1070,7 @@
     <row r="101">
       <c r="A101" s="0"/>
       <c r="B101" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C101" s="0"/>
       <c r="D101" s="0"/>
@@ -1048,7 +1079,7 @@
     <row r="102">
       <c r="A102" s="0"/>
       <c r="B102" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C102" s="0"/>
       <c r="D102" s="0"/>
@@ -1057,7 +1088,7 @@
     <row r="103">
       <c r="A103" s="0"/>
       <c r="B103" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C103" s="0"/>
       <c r="D103" s="0"/>
@@ -1066,7 +1097,7 @@
     <row r="104">
       <c r="A104" s="0"/>
       <c r="B104" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C104" s="0"/>
       <c r="D104" s="0"/>
@@ -1075,7 +1106,7 @@
     <row r="105">
       <c r="A105" s="0"/>
       <c r="B105" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C105" s="0"/>
       <c r="D105" s="0"/>
@@ -1084,7 +1115,7 @@
     <row r="106">
       <c r="A106" s="0"/>
       <c r="B106" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C106" s="0"/>
       <c r="D106" s="0"/>
@@ -1093,7 +1124,7 @@
     <row r="107">
       <c r="A107" s="0"/>
       <c r="B107" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C107" s="0"/>
       <c r="D107" s="0"/>
@@ -1102,7 +1133,7 @@
     <row r="108">
       <c r="A108" s="0"/>
       <c r="B108" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C108" s="0"/>
       <c r="D108" s="0"/>
@@ -1111,7 +1142,7 @@
     <row r="109">
       <c r="A109" s="0"/>
       <c r="B109" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C109" s="0"/>
       <c r="D109" s="0"/>
@@ -1120,7 +1151,7 @@
     <row r="110">
       <c r="A110" s="0"/>
       <c r="B110" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C110" s="0"/>
       <c r="D110" s="0"/>
@@ -1129,7 +1160,7 @@
     <row r="111">
       <c r="A111" s="0"/>
       <c r="B111" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C111" s="0"/>
       <c r="D111" s="0"/>
@@ -1138,7 +1169,7 @@
     <row r="112">
       <c r="A112" s="0"/>
       <c r="B112" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C112" s="0"/>
       <c r="D112" s="0"/>
@@ -1147,7 +1178,7 @@
     <row r="113">
       <c r="A113" s="0"/>
       <c r="B113" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C113" s="0"/>
       <c r="D113" s="0"/>
@@ -1156,7 +1187,7 @@
     <row r="114">
       <c r="A114" s="0"/>
       <c r="B114" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C114" s="0"/>
       <c r="D114" s="0"/>
@@ -1165,7 +1196,7 @@
     <row r="115">
       <c r="A115" s="0"/>
       <c r="B115" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C115" s="0"/>
       <c r="D115" s="0"/>
@@ -1174,7 +1205,7 @@
     <row r="116">
       <c r="A116" s="0"/>
       <c r="B116" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C116" s="0"/>
       <c r="D116" s="0"/>
@@ -1183,7 +1214,7 @@
     <row r="117">
       <c r="A117" s="0"/>
       <c r="B117" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C117" s="0"/>
       <c r="D117" s="0"/>
@@ -1192,7 +1223,7 @@
     <row r="118">
       <c r="A118" s="0"/>
       <c r="B118" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C118" s="0"/>
       <c r="D118" s="0"/>
@@ -1201,7 +1232,7 @@
     <row r="119">
       <c r="A119" s="0"/>
       <c r="B119" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C119" s="0"/>
       <c r="D119" s="0"/>
@@ -1210,7 +1241,7 @@
     <row r="120">
       <c r="A120" s="0"/>
       <c r="B120" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C120" s="0"/>
       <c r="D120" s="0"/>
@@ -1219,7 +1250,7 @@
     <row r="121">
       <c r="A121" s="0"/>
       <c r="B121" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C121" s="0"/>
       <c r="D121" s="0"/>
@@ -1228,7 +1259,7 @@
     <row r="122">
       <c r="A122" s="0"/>
       <c r="B122" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C122" s="0"/>
       <c r="D122" s="0"/>
@@ -1237,7 +1268,7 @@
     <row r="123">
       <c r="A123" s="0"/>
       <c r="B123" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C123" s="0"/>
       <c r="D123" s="0"/>
@@ -1246,7 +1277,7 @@
     <row r="124">
       <c r="A124" s="0"/>
       <c r="B124" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C124" s="0"/>
       <c r="D124" s="0"/>
@@ -1255,7 +1286,7 @@
     <row r="125">
       <c r="A125" s="0"/>
       <c r="B125" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C125" s="0"/>
       <c r="D125" s="0"/>
@@ -1264,7 +1295,7 @@
     <row r="126">
       <c r="A126" s="0"/>
       <c r="B126" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C126" s="0"/>
       <c r="D126" s="0"/>
@@ -1273,7 +1304,7 @@
     <row r="127">
       <c r="A127" s="0"/>
       <c r="B127" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C127" s="0"/>
       <c r="D127" s="0"/>
@@ -1282,7 +1313,7 @@
     <row r="128">
       <c r="A128" s="0"/>
       <c r="B128" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C128" s="0"/>
       <c r="D128" s="0"/>
@@ -1291,7 +1322,7 @@
     <row r="129">
       <c r="A129" s="0"/>
       <c r="B129" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C129" s="0"/>
       <c r="D129" s="0"/>
@@ -1300,7 +1331,7 @@
     <row r="130">
       <c r="A130" s="0"/>
       <c r="B130" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C130" s="0"/>
       <c r="D130" s="0"/>
@@ -1309,7 +1340,7 @@
     <row r="131">
       <c r="A131" s="0"/>
       <c r="B131" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C131" s="0"/>
       <c r="D131" s="0"/>
@@ -1318,7 +1349,7 @@
     <row r="132">
       <c r="A132" s="0"/>
       <c r="B132" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C132" s="0"/>
       <c r="D132" s="0"/>
@@ -1327,7 +1358,7 @@
     <row r="133">
       <c r="A133" s="0"/>
       <c r="B133" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C133" s="0"/>
       <c r="D133" s="0"/>
@@ -1336,7 +1367,7 @@
     <row r="134">
       <c r="A134" s="0"/>
       <c r="B134" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C134" s="0"/>
       <c r="D134" s="0"/>
@@ -1345,7 +1376,7 @@
     <row r="135">
       <c r="A135" s="0"/>
       <c r="B135" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C135" s="0"/>
       <c r="D135" s="0"/>
@@ -1354,7 +1385,7 @@
     <row r="136">
       <c r="A136" s="0"/>
       <c r="B136" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C136" s="0"/>
       <c r="D136" s="0"/>
@@ -1363,7 +1394,7 @@
     <row r="137">
       <c r="A137" s="0"/>
       <c r="B137" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C137" s="0"/>
       <c r="D137" s="0"/>
@@ -1372,7 +1403,7 @@
     <row r="138">
       <c r="A138" s="0"/>
       <c r="B138" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C138" s="0"/>
       <c r="D138" s="0"/>
@@ -1381,7 +1412,7 @@
     <row r="139">
       <c r="A139" s="0"/>
       <c r="B139" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C139" s="0"/>
       <c r="D139" s="0"/>
@@ -1390,7 +1421,7 @@
     <row r="140">
       <c r="A140" s="0"/>
       <c r="B140" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C140" s="0"/>
       <c r="D140" s="0"/>
@@ -1399,7 +1430,7 @@
     <row r="141">
       <c r="A141" s="0"/>
       <c r="B141" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C141" s="0"/>
       <c r="D141" s="0"/>
@@ -1408,7 +1439,7 @@
     <row r="142">
       <c r="A142" s="0"/>
       <c r="B142" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C142" s="0"/>
       <c r="D142" s="0"/>
@@ -1417,7 +1448,7 @@
     <row r="143">
       <c r="A143" s="0"/>
       <c r="B143" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C143" s="0"/>
       <c r="D143" s="0"/>
@@ -1426,7 +1457,7 @@
     <row r="144">
       <c r="A144" s="0"/>
       <c r="B144" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C144" s="0"/>
       <c r="D144" s="0"/>
@@ -1435,7 +1466,7 @@
     <row r="145">
       <c r="A145" s="0"/>
       <c r="B145" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C145" s="0"/>
       <c r="D145" s="0"/>
@@ -1444,7 +1475,7 @@
     <row r="146">
       <c r="A146" s="0"/>
       <c r="B146" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C146" s="0"/>
       <c r="D146" s="0"/>
@@ -1453,7 +1484,7 @@
     <row r="147">
       <c r="A147" s="0"/>
       <c r="B147" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C147" s="0"/>
       <c r="D147" s="0"/>
@@ -1462,7 +1493,7 @@
     <row r="148">
       <c r="A148" s="0"/>
       <c r="B148" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C148" s="0"/>
       <c r="D148" s="0"/>
@@ -1471,7 +1502,7 @@
     <row r="149">
       <c r="A149" s="0"/>
       <c r="B149" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C149" s="0"/>
       <c r="D149" s="0"/>
@@ -1480,7 +1511,7 @@
     <row r="150">
       <c r="A150" s="0"/>
       <c r="B150" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C150" s="0"/>
       <c r="D150" s="0"/>
@@ -1489,7 +1520,7 @@
     <row r="151">
       <c r="A151" s="0"/>
       <c r="B151" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C151" s="0"/>
       <c r="D151" s="0"/>
@@ -1498,7 +1529,7 @@
     <row r="152">
       <c r="A152" s="0"/>
       <c r="B152" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C152" s="0"/>
       <c r="D152" s="0"/>
@@ -1507,7 +1538,7 @@
     <row r="153">
       <c r="A153" s="0"/>
       <c r="B153" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C153" s="0"/>
       <c r="D153" s="0"/>
@@ -1516,7 +1547,7 @@
     <row r="154">
       <c r="A154" s="0"/>
       <c r="B154" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C154" s="0"/>
       <c r="D154" s="0"/>
@@ -1525,7 +1556,7 @@
     <row r="155">
       <c r="A155" s="0"/>
       <c r="B155" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C155" s="0"/>
       <c r="D155" s="0"/>
@@ -1534,7 +1565,7 @@
     <row r="156">
       <c r="A156" s="0"/>
       <c r="B156" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C156" s="0"/>
       <c r="D156" s="0"/>
@@ -1543,7 +1574,7 @@
     <row r="157">
       <c r="A157" s="0"/>
       <c r="B157" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C157" s="0"/>
       <c r="D157" s="0"/>
@@ -1552,7 +1583,7 @@
     <row r="158">
       <c r="A158" s="0"/>
       <c r="B158" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C158" s="0"/>
       <c r="D158" s="0"/>
@@ -1561,7 +1592,7 @@
     <row r="159">
       <c r="A159" s="0"/>
       <c r="B159" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C159" s="0"/>
       <c r="D159" s="0"/>
@@ -1570,7 +1601,7 @@
     <row r="160">
       <c r="A160" s="0"/>
       <c r="B160" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C160" s="0"/>
       <c r="D160" s="0"/>
@@ -1579,7 +1610,7 @@
     <row r="161">
       <c r="A161" s="0"/>
       <c r="B161" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C161" s="0"/>
       <c r="D161" s="0"/>
@@ -1588,7 +1619,7 @@
     <row r="162">
       <c r="A162" s="0"/>
       <c r="B162" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C162" s="0"/>
       <c r="D162" s="0"/>
@@ -1597,7 +1628,7 @@
     <row r="163">
       <c r="A163" s="0"/>
       <c r="B163" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C163" s="0"/>
       <c r="D163" s="0"/>
@@ -1606,7 +1637,7 @@
     <row r="164">
       <c r="A164" s="0"/>
       <c r="B164" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C164" s="0"/>
       <c r="D164" s="0"/>
@@ -1615,7 +1646,7 @@
     <row r="165">
       <c r="A165" s="0"/>
       <c r="B165" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C165" s="0"/>
       <c r="D165" s="0"/>
@@ -1624,7 +1655,7 @@
     <row r="166">
       <c r="A166" s="0"/>
       <c r="B166" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C166" s="0"/>
       <c r="D166" s="0"/>
@@ -1633,7 +1664,7 @@
     <row r="167">
       <c r="A167" s="0"/>
       <c r="B167" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C167" s="0"/>
       <c r="D167" s="0"/>
@@ -1642,7 +1673,7 @@
     <row r="168">
       <c r="A168" s="0"/>
       <c r="B168" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C168" s="0"/>
       <c r="D168" s="0"/>
@@ -1651,7 +1682,7 @@
     <row r="169">
       <c r="A169" s="0"/>
       <c r="B169" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C169" s="0"/>
       <c r="D169" s="0"/>
@@ -1660,7 +1691,7 @@
     <row r="170">
       <c r="A170" s="0"/>
       <c r="B170" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C170" s="0"/>
       <c r="D170" s="0"/>
@@ -1669,7 +1700,7 @@
     <row r="171">
       <c r="A171" s="0"/>
       <c r="B171" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C171" s="0"/>
       <c r="D171" s="0"/>
@@ -1678,7 +1709,7 @@
     <row r="172">
       <c r="A172" s="0"/>
       <c r="B172" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C172" s="0"/>
       <c r="D172" s="0"/>
@@ -1687,7 +1718,7 @@
     <row r="173">
       <c r="A173" s="0"/>
       <c r="B173" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C173" s="0"/>
       <c r="D173" s="0"/>
@@ -1696,7 +1727,7 @@
     <row r="174">
       <c r="A174" s="0"/>
       <c r="B174" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C174" s="0"/>
       <c r="D174" s="0"/>
@@ -1705,7 +1736,7 @@
     <row r="175">
       <c r="A175" s="0"/>
       <c r="B175" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C175" s="0"/>
       <c r="D175" s="0"/>
@@ -1714,7 +1745,7 @@
     <row r="176">
       <c r="A176" s="0"/>
       <c r="B176" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C176" s="0"/>
       <c r="D176" s="0"/>
@@ -1723,7 +1754,7 @@
     <row r="177">
       <c r="A177" s="0"/>
       <c r="B177" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C177" s="0"/>
       <c r="D177" s="0"/>
@@ -1732,7 +1763,7 @@
     <row r="178">
       <c r="A178" s="0"/>
       <c r="B178" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C178" s="0"/>
       <c r="D178" s="0"/>
@@ -1741,7 +1772,7 @@
     <row r="179">
       <c r="A179" s="0"/>
       <c r="B179" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C179" s="0"/>
       <c r="D179" s="0"/>
@@ -1750,7 +1781,7 @@
     <row r="180">
       <c r="A180" s="0"/>
       <c r="B180" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C180" s="0"/>
       <c r="D180" s="0"/>
@@ -1759,7 +1790,7 @@
     <row r="181">
       <c r="A181" s="0"/>
       <c r="B181" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C181" s="0"/>
       <c r="D181" s="0"/>
@@ -1768,7 +1799,7 @@
     <row r="182">
       <c r="A182" s="0"/>
       <c r="B182" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C182" s="0"/>
       <c r="D182" s="0"/>
@@ -1777,7 +1808,7 @@
     <row r="183">
       <c r="A183" s="0"/>
       <c r="B183" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C183" s="0"/>
       <c r="D183" s="0"/>
@@ -1786,7 +1817,7 @@
     <row r="184">
       <c r="A184" s="0"/>
       <c r="B184" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C184" s="0"/>
       <c r="D184" s="0"/>
@@ -1795,7 +1826,7 @@
     <row r="185">
       <c r="A185" s="0"/>
       <c r="B185" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C185" s="0"/>
       <c r="D185" s="0"/>
@@ -1804,7 +1835,7 @@
     <row r="186">
       <c r="A186" s="0"/>
       <c r="B186" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C186" s="0"/>
       <c r="D186" s="0"/>
@@ -1813,7 +1844,7 @@
     <row r="187">
       <c r="A187" s="0"/>
       <c r="B187" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C187" s="0"/>
       <c r="D187" s="0"/>
@@ -1822,7 +1853,7 @@
     <row r="188">
       <c r="A188" s="0"/>
       <c r="B188" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C188" s="0"/>
       <c r="D188" s="0"/>
@@ -1831,7 +1862,7 @@
     <row r="189">
       <c r="A189" s="0"/>
       <c r="B189" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C189" s="0"/>
       <c r="D189" s="0"/>
@@ -1840,7 +1871,7 @@
     <row r="190">
       <c r="A190" s="0"/>
       <c r="B190" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C190" s="0"/>
       <c r="D190" s="0"/>
@@ -1849,7 +1880,7 @@
     <row r="191">
       <c r="A191" s="0"/>
       <c r="B191" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C191" s="0"/>
       <c r="D191" s="0"/>
@@ -1858,7 +1889,7 @@
     <row r="192">
       <c r="A192" s="0"/>
       <c r="B192" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C192" s="0"/>
       <c r="D192" s="0"/>
@@ -1867,7 +1898,7 @@
     <row r="193">
       <c r="A193" s="0"/>
       <c r="B193" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C193" s="0"/>
       <c r="D193" s="0"/>
@@ -1876,7 +1907,7 @@
     <row r="194">
       <c r="A194" s="0"/>
       <c r="B194" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C194" s="0"/>
       <c r="D194" s="0"/>
@@ -1885,7 +1916,7 @@
     <row r="195">
       <c r="A195" s="0"/>
       <c r="B195" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C195" s="0"/>
       <c r="D195" s="0"/>
@@ -1894,7 +1925,7 @@
     <row r="196">
       <c r="A196" s="0"/>
       <c r="B196" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C196" s="0"/>
       <c r="D196" s="0"/>
@@ -1903,7 +1934,7 @@
     <row r="197">
       <c r="A197" s="0"/>
       <c r="B197" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C197" s="0"/>
       <c r="D197" s="0"/>
@@ -1912,7 +1943,7 @@
     <row r="198">
       <c r="A198" s="0"/>
       <c r="B198" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C198" s="0"/>
       <c r="D198" s="0"/>
@@ -1921,7 +1952,7 @@
     <row r="199">
       <c r="A199" s="0"/>
       <c r="B199" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C199" s="0"/>
       <c r="D199" s="0"/>
@@ -1930,7 +1961,7 @@
     <row r="200">
       <c r="A200" s="0"/>
       <c r="B200" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C200" s="0"/>
       <c r="D200" s="0"/>
@@ -1939,7 +1970,7 @@
     <row r="201">
       <c r="A201" s="0"/>
       <c r="B201" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C201" s="0"/>
       <c r="D201" s="0"/>
@@ -1948,7 +1979,7 @@
     <row r="202">
       <c r="A202" s="0"/>
       <c r="B202" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C202" s="0"/>
       <c r="D202" s="0"/>
@@ -1957,7 +1988,7 @@
     <row r="203">
       <c r="A203" s="0"/>
       <c r="B203" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C203" s="0"/>
       <c r="D203" s="0"/>
@@ -1966,7 +1997,7 @@
     <row r="204">
       <c r="A204" s="0"/>
       <c r="B204" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C204" s="0"/>
       <c r="D204" s="0"/>
@@ -1975,7 +2006,7 @@
     <row r="205">
       <c r="A205" s="0"/>
       <c r="B205" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C205" s="0"/>
       <c r="D205" s="0"/>
@@ -1984,7 +2015,7 @@
     <row r="206">
       <c r="A206" s="0"/>
       <c r="B206" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C206" s="0"/>
       <c r="D206" s="0"/>
@@ -1993,7 +2024,7 @@
     <row r="207">
       <c r="A207" s="0"/>
       <c r="B207" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C207" s="0"/>
       <c r="D207" s="0"/>
@@ -2002,7 +2033,7 @@
     <row r="208">
       <c r="A208" s="0"/>
       <c r="B208" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C208" s="0"/>
       <c r="D208" s="0"/>
@@ -2011,7 +2042,7 @@
     <row r="209">
       <c r="A209" s="0"/>
       <c r="B209" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C209" s="0"/>
       <c r="D209" s="0"/>
@@ -2020,7 +2051,7 @@
     <row r="210">
       <c r="A210" s="0"/>
       <c r="B210" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C210" s="0"/>
       <c r="D210" s="0"/>
@@ -2029,7 +2060,7 @@
     <row r="211">
       <c r="A211" s="0"/>
       <c r="B211" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C211" s="0"/>
       <c r="D211" s="0"/>
@@ -2038,7 +2069,7 @@
     <row r="212">
       <c r="A212" s="0"/>
       <c r="B212" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C212" s="0"/>
       <c r="D212" s="0"/>
@@ -2047,7 +2078,7 @@
     <row r="213">
       <c r="A213" s="0"/>
       <c r="B213" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C213" s="0"/>
       <c r="D213" s="0"/>
@@ -2056,7 +2087,7 @@
     <row r="214">
       <c r="A214" s="0"/>
       <c r="B214" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C214" s="0"/>
       <c r="D214" s="0"/>
@@ -2065,7 +2096,7 @@
     <row r="215">
       <c r="A215" s="0"/>
       <c r="B215" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C215" s="0"/>
       <c r="D215" s="0"/>
@@ -2074,7 +2105,7 @@
     <row r="216">
       <c r="A216" s="0"/>
       <c r="B216" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C216" s="0"/>
       <c r="D216" s="0"/>
@@ -2083,7 +2114,7 @@
     <row r="217">
       <c r="A217" s="0"/>
       <c r="B217" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C217" s="0"/>
       <c r="D217" s="0"/>
@@ -2092,7 +2123,7 @@
     <row r="218">
       <c r="A218" s="0"/>
       <c r="B218" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C218" s="0"/>
       <c r="D218" s="0"/>
@@ -2101,7 +2132,7 @@
     <row r="219">
       <c r="A219" s="0"/>
       <c r="B219" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C219" s="0"/>
       <c r="D219" s="0"/>
@@ -2110,7 +2141,7 @@
     <row r="220">
       <c r="A220" s="0"/>
       <c r="B220" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C220" s="0"/>
       <c r="D220" s="0"/>
@@ -2119,7 +2150,7 @@
     <row r="221">
       <c r="A221" s="0"/>
       <c r="B221" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C221" s="0"/>
       <c r="D221" s="0"/>
@@ -2128,7 +2159,7 @@
     <row r="222">
       <c r="A222" s="0"/>
       <c r="B222" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C222" s="0"/>
       <c r="D222" s="0"/>
@@ -2137,7 +2168,7 @@
     <row r="223">
       <c r="A223" s="0"/>
       <c r="B223" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C223" s="0"/>
       <c r="D223" s="0"/>
@@ -2146,7 +2177,7 @@
     <row r="224">
       <c r="A224" s="0"/>
       <c r="B224" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C224" s="0"/>
       <c r="D224" s="0"/>
@@ -2155,7 +2186,7 @@
     <row r="225">
       <c r="A225" s="0"/>
       <c r="B225" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C225" s="0"/>
       <c r="D225" s="0"/>
@@ -2164,7 +2195,7 @@
     <row r="226">
       <c r="A226" s="0"/>
       <c r="B226" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C226" s="0"/>
       <c r="D226" s="0"/>
@@ -2173,7 +2204,7 @@
     <row r="227">
       <c r="A227" s="0"/>
       <c r="B227" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C227" s="0"/>
       <c r="D227" s="0"/>
@@ -2182,7 +2213,7 @@
     <row r="228">
       <c r="A228" s="0"/>
       <c r="B228" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C228" s="0"/>
       <c r="D228" s="0"/>
@@ -2191,7 +2222,7 @@
     <row r="229">
       <c r="A229" s="0"/>
       <c r="B229" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C229" s="0"/>
       <c r="D229" s="0"/>
@@ -2200,7 +2231,7 @@
     <row r="230">
       <c r="A230" s="0"/>
       <c r="B230" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C230" s="0"/>
       <c r="D230" s="0"/>
@@ -2209,7 +2240,7 @@
     <row r="231">
       <c r="A231" s="0"/>
       <c r="B231" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C231" s="0"/>
       <c r="D231" s="0"/>
@@ -2218,7 +2249,7 @@
     <row r="232">
       <c r="A232" s="0"/>
       <c r="B232" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C232" s="0"/>
       <c r="D232" s="0"/>
@@ -2227,7 +2258,7 @@
     <row r="233">
       <c r="A233" s="0"/>
       <c r="B233" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C233" s="0"/>
       <c r="D233" s="0"/>
@@ -2236,7 +2267,7 @@
     <row r="234">
       <c r="A234" s="0"/>
       <c r="B234" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C234" s="0"/>
       <c r="D234" s="0"/>
@@ -2245,7 +2276,7 @@
     <row r="235">
       <c r="A235" s="0"/>
       <c r="B235" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C235" s="0"/>
       <c r="D235" s="0"/>
@@ -2254,7 +2285,7 @@
     <row r="236">
       <c r="A236" s="0"/>
       <c r="B236" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C236" s="0"/>
       <c r="D236" s="0"/>
@@ -2263,7 +2294,7 @@
     <row r="237">
       <c r="A237" s="0"/>
       <c r="B237" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C237" s="0"/>
       <c r="D237" s="0"/>
@@ -2272,7 +2303,7 @@
     <row r="238">
       <c r="A238" s="0"/>
       <c r="B238" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C238" s="0"/>
       <c r="D238" s="0"/>
@@ -2281,7 +2312,7 @@
     <row r="239">
       <c r="A239" s="0"/>
       <c r="B239" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C239" s="0"/>
       <c r="D239" s="0"/>
@@ -2290,7 +2321,7 @@
     <row r="240">
       <c r="A240" s="0"/>
       <c r="B240" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C240" s="0"/>
       <c r="D240" s="0"/>
@@ -2299,7 +2330,7 @@
     <row r="241">
       <c r="A241" s="0"/>
       <c r="B241" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C241" s="0"/>
       <c r="D241" s="0"/>
@@ -2308,7 +2339,7 @@
     <row r="242">
       <c r="A242" s="0"/>
       <c r="B242" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C242" s="0"/>
       <c r="D242" s="0"/>
@@ -2317,7 +2348,7 @@
     <row r="243">
       <c r="A243" s="0"/>
       <c r="B243" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C243" s="0"/>
       <c r="D243" s="0"/>
@@ -2326,7 +2357,7 @@
     <row r="244">
       <c r="A244" s="0"/>
       <c r="B244" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C244" s="0"/>
       <c r="D244" s="0"/>
@@ -2335,7 +2366,7 @@
     <row r="245">
       <c r="A245" s="0"/>
       <c r="B245" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C245" s="0"/>
       <c r="D245" s="0"/>
@@ -2344,7 +2375,7 @@
     <row r="246">
       <c r="A246" s="0"/>
       <c r="B246" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C246" s="0"/>
       <c r="D246" s="0"/>
@@ -2353,7 +2384,7 @@
     <row r="247">
       <c r="A247" s="0"/>
       <c r="B247" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C247" s="0"/>
       <c r="D247" s="0"/>
@@ -2362,7 +2393,7 @@
     <row r="248">
       <c r="A248" s="0"/>
       <c r="B248" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C248" s="0"/>
       <c r="D248" s="0"/>
@@ -2371,7 +2402,7 @@
     <row r="249">
       <c r="A249" s="0"/>
       <c r="B249" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C249" s="0"/>
       <c r="D249" s="0"/>
@@ -2380,7 +2411,7 @@
     <row r="250">
       <c r="A250" s="0"/>
       <c r="B250" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C250" s="0"/>
       <c r="D250" s="0"/>
@@ -2389,7 +2420,7 @@
     <row r="251">
       <c r="A251" s="0"/>
       <c r="B251" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C251" s="0"/>
       <c r="D251" s="0"/>
@@ -2398,7 +2429,7 @@
     <row r="252">
       <c r="A252" s="0"/>
       <c r="B252" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C252" s="0"/>
       <c r="D252" s="0"/>
@@ -2407,7 +2438,7 @@
     <row r="253">
       <c r="A253" s="0"/>
       <c r="B253" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C253" s="0"/>
       <c r="D253" s="0"/>
@@ -2416,7 +2447,7 @@
     <row r="254">
       <c r="A254" s="0"/>
       <c r="B254" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C254" s="0"/>
       <c r="D254" s="0"/>
@@ -2425,7 +2456,7 @@
     <row r="255">
       <c r="A255" s="0"/>
       <c r="B255" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C255" s="0"/>
       <c r="D255" s="0"/>
@@ -2434,7 +2465,7 @@
     <row r="256">
       <c r="A256" s="0"/>
       <c r="B256" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C256" s="0"/>
       <c r="D256" s="0"/>
@@ -2443,7 +2474,7 @@
     <row r="257">
       <c r="A257" s="0"/>
       <c r="B257" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C257" s="0"/>
       <c r="D257" s="0"/>
@@ -2452,7 +2483,7 @@
     <row r="258">
       <c r="A258" s="0"/>
       <c r="B258" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C258" s="0"/>
       <c r="D258" s="0"/>
@@ -2461,7 +2492,7 @@
     <row r="259">
       <c r="A259" s="0"/>
       <c r="B259" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C259" s="0"/>
       <c r="D259" s="0"/>
@@ -2470,7 +2501,7 @@
     <row r="260">
       <c r="A260" s="0"/>
       <c r="B260" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C260" s="0"/>
       <c r="D260" s="0"/>
@@ -2479,7 +2510,7 @@
     <row r="261">
       <c r="A261" s="0"/>
       <c r="B261" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C261" s="0"/>
       <c r="D261" s="0"/>
@@ -2488,7 +2519,7 @@
     <row r="262">
       <c r="A262" s="0"/>
       <c r="B262" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C262" s="0"/>
       <c r="D262" s="0"/>
@@ -2497,7 +2528,7 @@
     <row r="263">
       <c r="A263" s="0"/>
       <c r="B263" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C263" s="0"/>
       <c r="D263" s="0"/>
@@ -2506,7 +2537,7 @@
     <row r="264">
       <c r="A264" s="0"/>
       <c r="B264" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C264" s="0"/>
       <c r="D264" s="0"/>
@@ -2515,7 +2546,7 @@
     <row r="265">
       <c r="A265" s="0"/>
       <c r="B265" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C265" s="0"/>
       <c r="D265" s="0"/>
@@ -2524,7 +2555,7 @@
     <row r="266">
       <c r="A266" s="0"/>
       <c r="B266" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C266" s="0"/>
       <c r="D266" s="0"/>
@@ -2533,7 +2564,7 @@
     <row r="267">
       <c r="A267" s="0"/>
       <c r="B267" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C267" s="0"/>
       <c r="D267" s="0"/>
@@ -2542,7 +2573,7 @@
     <row r="268">
       <c r="A268" s="0"/>
       <c r="B268" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C268" s="0"/>
       <c r="D268" s="0"/>
@@ -2551,7 +2582,7 @@
     <row r="269">
       <c r="A269" s="0"/>
       <c r="B269" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C269" s="0"/>
       <c r="D269" s="0"/>
@@ -2560,7 +2591,7 @@
     <row r="270">
       <c r="A270" s="0"/>
       <c r="B270" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C270" s="0"/>
       <c r="D270" s="0"/>
@@ -2569,7 +2600,7 @@
     <row r="271">
       <c r="A271" s="0"/>
       <c r="B271" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C271" s="0"/>
       <c r="D271" s="0"/>
@@ -2578,7 +2609,7 @@
     <row r="272">
       <c r="A272" s="0"/>
       <c r="B272" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C272" s="0"/>
       <c r="D272" s="0"/>
@@ -2587,7 +2618,7 @@
     <row r="273">
       <c r="A273" s="0"/>
       <c r="B273" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C273" s="0"/>
       <c r="D273" s="0"/>
@@ -2596,7 +2627,7 @@
     <row r="274">
       <c r="A274" s="0"/>
       <c r="B274" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C274" s="0"/>
       <c r="D274" s="0"/>
@@ -2605,7 +2636,7 @@
     <row r="275">
       <c r="A275" s="0"/>
       <c r="B275" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C275" s="0"/>
       <c r="D275" s="0"/>
@@ -2614,7 +2645,7 @@
     <row r="276">
       <c r="A276" s="0"/>
       <c r="B276" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C276" s="0"/>
       <c r="D276" s="0"/>
@@ -2623,7 +2654,7 @@
     <row r="277">
       <c r="A277" s="0"/>
       <c r="B277" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C277" s="0"/>
       <c r="D277" s="0"/>
@@ -2632,7 +2663,7 @@
     <row r="278">
       <c r="A278" s="0"/>
       <c r="B278" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C278" s="0"/>
       <c r="D278" s="0"/>
@@ -2641,7 +2672,7 @@
     <row r="279">
       <c r="A279" s="0"/>
       <c r="B279" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C279" s="0"/>
       <c r="D279" s="0"/>
@@ -2650,7 +2681,7 @@
     <row r="280">
       <c r="A280" s="0"/>
       <c r="B280" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C280" s="0"/>
       <c r="D280" s="0"/>
@@ -2659,7 +2690,7 @@
     <row r="281">
       <c r="A281" s="0"/>
       <c r="B281" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C281" s="0"/>
       <c r="D281" s="0"/>
@@ -2668,7 +2699,7 @@
     <row r="282">
       <c r="A282" s="0"/>
       <c r="B282" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C282" s="0"/>
       <c r="D282" s="0"/>
@@ -2677,7 +2708,7 @@
     <row r="283">
       <c r="A283" s="0"/>
       <c r="B283" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C283" s="0"/>
       <c r="D283" s="0"/>
@@ -2686,7 +2717,7 @@
     <row r="284">
       <c r="A284" s="0"/>
       <c r="B284" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C284" s="0"/>
       <c r="D284" s="0"/>
@@ -2695,7 +2726,7 @@
     <row r="285">
       <c r="A285" s="0"/>
       <c r="B285" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C285" s="0"/>
       <c r="D285" s="0"/>
@@ -2704,7 +2735,7 @@
     <row r="286">
       <c r="A286" s="0"/>
       <c r="B286" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C286" s="0"/>
       <c r="D286" s="0"/>
@@ -2713,7 +2744,7 @@
     <row r="287">
       <c r="A287" s="0"/>
       <c r="B287" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C287" s="0"/>
       <c r="D287" s="0"/>
@@ -2722,7 +2753,7 @@
     <row r="288">
       <c r="A288" s="0"/>
       <c r="B288" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C288" s="0"/>
       <c r="D288" s="0"/>
@@ -2731,7 +2762,7 @@
     <row r="289">
       <c r="A289" s="0"/>
       <c r="B289" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C289" s="0"/>
       <c r="D289" s="0"/>
@@ -2740,7 +2771,7 @@
     <row r="290">
       <c r="A290" s="0"/>
       <c r="B290" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C290" s="0"/>
       <c r="D290" s="0"/>
@@ -2749,7 +2780,7 @@
     <row r="291">
       <c r="A291" s="0"/>
       <c r="B291" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C291" s="0"/>
       <c r="D291" s="0"/>
@@ -2758,7 +2789,7 @@
     <row r="292">
       <c r="A292" s="0"/>
       <c r="B292" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C292" s="0"/>
       <c r="D292" s="0"/>
@@ -2767,7 +2798,7 @@
     <row r="293">
       <c r="A293" s="0"/>
       <c r="B293" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C293" s="0"/>
       <c r="D293" s="0"/>
@@ -2776,7 +2807,7 @@
     <row r="294">
       <c r="A294" s="0"/>
       <c r="B294" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C294" s="0"/>
       <c r="D294" s="0"/>
@@ -2785,7 +2816,7 @@
     <row r="295">
       <c r="A295" s="0"/>
       <c r="B295" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C295" s="0"/>
       <c r="D295" s="0"/>
@@ -2794,7 +2825,7 @@
     <row r="296">
       <c r="A296" s="0"/>
       <c r="B296" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C296" s="0"/>
       <c r="D296" s="0"/>
@@ -2803,7 +2834,7 @@
     <row r="297">
       <c r="A297" s="0"/>
       <c r="B297" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C297" s="0"/>
       <c r="D297" s="0"/>
@@ -2812,7 +2843,7 @@
     <row r="298">
       <c r="A298" s="0"/>
       <c r="B298" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C298" s="0"/>
       <c r="D298" s="0"/>
@@ -2821,7 +2852,7 @@
     <row r="299">
       <c r="A299" s="0"/>
       <c r="B299" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C299" s="0"/>
       <c r="D299" s="0"/>
@@ -2830,7 +2861,7 @@
     <row r="300">
       <c r="A300" s="0"/>
       <c r="B300" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C300" s="0"/>
       <c r="D300" s="0"/>
@@ -2839,7 +2870,7 @@
     <row r="301">
       <c r="A301" s="0"/>
       <c r="B301" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C301" s="0"/>
       <c r="D301" s="0"/>
@@ -2848,7 +2879,7 @@
     <row r="302">
       <c r="A302" s="0"/>
       <c r="B302" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C302" s="0"/>
       <c r="D302" s="0"/>
@@ -2857,7 +2888,7 @@
     <row r="303">
       <c r="A303" s="0"/>
       <c r="B303" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C303" s="0"/>
       <c r="D303" s="0"/>
@@ -2866,7 +2897,7 @@
     <row r="304">
       <c r="A304" s="0"/>
       <c r="B304" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C304" s="0"/>
       <c r="D304" s="0"/>
@@ -2875,7 +2906,7 @@
     <row r="305">
       <c r="A305" s="0"/>
       <c r="B305" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C305" s="0"/>
       <c r="D305" s="0"/>
@@ -2884,7 +2915,7 @@
     <row r="306">
       <c r="A306" s="0"/>
       <c r="B306" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C306" s="0"/>
       <c r="D306" s="0"/>
@@ -2893,7 +2924,7 @@
     <row r="307">
       <c r="A307" s="0"/>
       <c r="B307" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C307" s="0"/>
       <c r="D307" s="0"/>
@@ -2902,7 +2933,7 @@
     <row r="308">
       <c r="A308" s="0"/>
       <c r="B308" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C308" s="0"/>
       <c r="D308" s="0"/>
@@ -2911,7 +2942,7 @@
     <row r="309">
       <c r="A309" s="0"/>
       <c r="B309" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C309" s="0"/>
       <c r="D309" s="0"/>
@@ -2920,7 +2951,7 @@
     <row r="310">
       <c r="A310" s="0"/>
       <c r="B310" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C310" s="0"/>
       <c r="D310" s="0"/>
@@ -2929,7 +2960,7 @@
     <row r="311">
       <c r="A311" s="0"/>
       <c r="B311" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C311" s="0"/>
       <c r="D311" s="0"/>
@@ -2938,7 +2969,7 @@
     <row r="312">
       <c r="A312" s="0"/>
       <c r="B312" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C312" s="0"/>
       <c r="D312" s="0"/>
@@ -2947,7 +2978,7 @@
     <row r="313">
       <c r="A313" s="0"/>
       <c r="B313" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C313" s="0"/>
       <c r="D313" s="0"/>
@@ -2956,7 +2987,7 @@
     <row r="314">
       <c r="A314" s="0"/>
       <c r="B314" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C314" s="0"/>
       <c r="D314" s="0"/>
@@ -2965,7 +2996,7 @@
     <row r="315">
       <c r="A315" s="0"/>
       <c r="B315" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C315" s="0"/>
       <c r="D315" s="0"/>
@@ -2974,7 +3005,7 @@
     <row r="316">
       <c r="A316" s="0"/>
       <c r="B316" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C316" s="0"/>
       <c r="D316" s="0"/>
@@ -2983,7 +3014,7 @@
     <row r="317">
       <c r="A317" s="0"/>
       <c r="B317" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C317" s="0"/>
       <c r="D317" s="0"/>
@@ -2992,7 +3023,7 @@
     <row r="318">
       <c r="A318" s="0"/>
       <c r="B318" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C318" s="0"/>
       <c r="D318" s="0"/>
@@ -3001,7 +3032,7 @@
     <row r="319">
       <c r="A319" s="0"/>
       <c r="B319" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C319" s="0"/>
       <c r="D319" s="0"/>
@@ -3010,7 +3041,7 @@
     <row r="320">
       <c r="A320" s="0"/>
       <c r="B320" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C320" s="0"/>
       <c r="D320" s="0"/>
@@ -3019,7 +3050,7 @@
     <row r="321">
       <c r="A321" s="0"/>
       <c r="B321" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C321" s="0"/>
       <c r="D321" s="0"/>
@@ -3028,7 +3059,7 @@
     <row r="322">
       <c r="A322" s="0"/>
       <c r="B322" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C322" s="0"/>
       <c r="D322" s="0"/>
@@ -3037,7 +3068,7 @@
     <row r="323">
       <c r="A323" s="0"/>
       <c r="B323" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C323" s="0"/>
       <c r="D323" s="0"/>
@@ -3046,7 +3077,7 @@
     <row r="324">
       <c r="A324" s="0"/>
       <c r="B324" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C324" s="0"/>
       <c r="D324" s="0"/>
@@ -3055,7 +3086,7 @@
     <row r="325">
       <c r="A325" s="0"/>
       <c r="B325" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C325" s="0"/>
       <c r="D325" s="0"/>
@@ -3064,7 +3095,7 @@
     <row r="326">
       <c r="A326" s="0"/>
       <c r="B326" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C326" s="0"/>
       <c r="D326" s="0"/>
@@ -3073,7 +3104,7 @@
     <row r="327">
       <c r="A327" s="0"/>
       <c r="B327" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C327" s="0"/>
       <c r="D327" s="0"/>
@@ -3082,7 +3113,7 @@
     <row r="328">
       <c r="A328" s="0"/>
       <c r="B328" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C328" s="0"/>
       <c r="D328" s="0"/>
@@ -3091,7 +3122,7 @@
     <row r="329">
       <c r="A329" s="0"/>
       <c r="B329" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C329" s="0"/>
       <c r="D329" s="0"/>
@@ -3100,7 +3131,7 @@
     <row r="330">
       <c r="A330" s="0"/>
       <c r="B330" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C330" s="0"/>
       <c r="D330" s="0"/>
@@ -3109,7 +3140,7 @@
     <row r="331">
       <c r="A331" s="0"/>
       <c r="B331" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C331" s="0"/>
       <c r="D331" s="0"/>
@@ -3118,7 +3149,7 @@
     <row r="332">
       <c r="A332" s="0"/>
       <c r="B332" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C332" s="0"/>
       <c r="D332" s="0"/>
@@ -3127,7 +3158,7 @@
     <row r="333">
       <c r="A333" s="0"/>
       <c r="B333" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C333" s="0"/>
       <c r="D333" s="0"/>
@@ -3136,7 +3167,7 @@
     <row r="334">
       <c r="A334" s="0"/>
       <c r="B334" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C334" s="0"/>
       <c r="D334" s="0"/>
@@ -3145,7 +3176,7 @@
     <row r="335">
       <c r="A335" s="0"/>
       <c r="B335" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C335" s="0"/>
       <c r="D335" s="0"/>
@@ -3154,7 +3185,7 @@
     <row r="336">
       <c r="A336" s="0"/>
       <c r="B336" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C336" s="0"/>
       <c r="D336" s="0"/>
@@ -3163,7 +3194,7 @@
     <row r="337">
       <c r="A337" s="0"/>
       <c r="B337" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C337" s="0"/>
       <c r="D337" s="0"/>
@@ -3172,7 +3203,7 @@
     <row r="338">
       <c r="A338" s="0"/>
       <c r="B338" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C338" s="0"/>
       <c r="D338" s="0"/>
@@ -3181,7 +3212,7 @@
     <row r="339">
       <c r="A339" s="0"/>
       <c r="B339" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C339" s="0"/>
       <c r="D339" s="0"/>
@@ -3190,7 +3221,7 @@
     <row r="340">
       <c r="A340" s="0"/>
       <c r="B340" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C340" s="0"/>
       <c r="D340" s="0"/>
@@ -3199,7 +3230,7 @@
     <row r="341">
       <c r="A341" s="0"/>
       <c r="B341" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C341" s="0"/>
       <c r="D341" s="0"/>
@@ -3208,7 +3239,7 @@
     <row r="342">
       <c r="A342" s="0"/>
       <c r="B342" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C342" s="0"/>
       <c r="D342" s="0"/>
@@ -3217,7 +3248,7 @@
     <row r="343">
       <c r="A343" s="0"/>
       <c r="B343" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C343" s="0"/>
       <c r="D343" s="0"/>
@@ -3226,7 +3257,7 @@
     <row r="344">
       <c r="A344" s="0"/>
       <c r="B344" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C344" s="0"/>
       <c r="D344" s="0"/>
@@ -3235,7 +3266,7 @@
     <row r="345">
       <c r="A345" s="0"/>
       <c r="B345" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C345" s="0"/>
       <c r="D345" s="0"/>
@@ -3244,7 +3275,7 @@
     <row r="346">
       <c r="A346" s="0"/>
       <c r="B346" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C346" s="0"/>
       <c r="D346" s="0"/>
@@ -3253,7 +3284,7 @@
     <row r="347">
       <c r="A347" s="0"/>
       <c r="B347" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C347" s="0"/>
       <c r="D347" s="0"/>
@@ -3262,7 +3293,7 @@
     <row r="348">
       <c r="A348" s="0"/>
       <c r="B348" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C348" s="0"/>
       <c r="D348" s="0"/>
@@ -3271,7 +3302,7 @@
     <row r="349">
       <c r="A349" s="0"/>
       <c r="B349" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C349" s="0"/>
       <c r="D349" s="0"/>
@@ -3280,7 +3311,7 @@
     <row r="350">
       <c r="A350" s="0"/>
       <c r="B350" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C350" s="0"/>
       <c r="D350" s="0"/>
@@ -3289,7 +3320,7 @@
     <row r="351">
       <c r="A351" s="0"/>
       <c r="B351" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C351" s="0"/>
       <c r="D351" s="0"/>
@@ -3298,7 +3329,7 @@
     <row r="352">
       <c r="A352" s="0"/>
       <c r="B352" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C352" s="0"/>
       <c r="D352" s="0"/>
@@ -3307,7 +3338,7 @@
     <row r="353">
       <c r="A353" s="0"/>
       <c r="B353" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C353" s="0"/>
       <c r="D353" s="0"/>
@@ -3316,7 +3347,7 @@
     <row r="354">
       <c r="A354" s="0"/>
       <c r="B354" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C354" s="0"/>
       <c r="D354" s="0"/>
@@ -3325,7 +3356,7 @@
     <row r="355">
       <c r="A355" s="0"/>
       <c r="B355" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C355" s="0"/>
       <c r="D355" s="0"/>
@@ -3334,7 +3365,7 @@
     <row r="356">
       <c r="A356" s="0"/>
       <c r="B356" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C356" s="0"/>
       <c r="D356" s="0"/>
@@ -3343,7 +3374,7 @@
     <row r="357">
       <c r="A357" s="0"/>
       <c r="B357" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C357" s="0"/>
       <c r="D357" s="0"/>
@@ -3352,7 +3383,7 @@
     <row r="358">
       <c r="A358" s="0"/>
       <c r="B358" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C358" s="0"/>
       <c r="D358" s="0"/>
@@ -3361,7 +3392,7 @@
     <row r="359">
       <c r="A359" s="0"/>
       <c r="B359" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C359" s="0"/>
       <c r="D359" s="0"/>
@@ -3370,7 +3401,7 @@
     <row r="360">
       <c r="A360" s="0"/>
       <c r="B360" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C360" s="0"/>
       <c r="D360" s="0"/>
@@ -3379,7 +3410,7 @@
     <row r="361">
       <c r="A361" s="0"/>
       <c r="B361" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C361" s="0"/>
       <c r="D361" s="0"/>
@@ -3388,7 +3419,7 @@
     <row r="362">
       <c r="A362" s="0"/>
       <c r="B362" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C362" s="0"/>
       <c r="D362" s="0"/>
@@ -3397,7 +3428,7 @@
     <row r="363">
       <c r="A363" s="0"/>
       <c r="B363" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C363" s="0"/>
       <c r="D363" s="0"/>
@@ -3406,7 +3437,7 @@
     <row r="364">
       <c r="A364" s="0"/>
       <c r="B364" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C364" s="0"/>
       <c r="D364" s="0"/>
@@ -3415,7 +3446,7 @@
     <row r="365">
       <c r="A365" s="0"/>
       <c r="B365" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C365" s="0"/>
       <c r="D365" s="0"/>
@@ -3424,7 +3455,7 @@
     <row r="366">
       <c r="A366" s="0"/>
       <c r="B366" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C366" s="0"/>
       <c r="D366" s="0"/>
@@ -3433,7 +3464,7 @@
     <row r="367">
       <c r="A367" s="0"/>
       <c r="B367" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C367" s="0"/>
       <c r="D367" s="0"/>
@@ -3442,7 +3473,7 @@
     <row r="368">
       <c r="A368" s="0"/>
       <c r="B368" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C368" s="0"/>
       <c r="D368" s="0"/>
@@ -3451,7 +3482,7 @@
     <row r="369">
       <c r="A369" s="0"/>
       <c r="B369" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C369" s="0"/>
       <c r="D369" s="0"/>
@@ -3460,7 +3491,7 @@
     <row r="370">
       <c r="A370" s="0"/>
       <c r="B370" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C370" s="0"/>
       <c r="D370" s="0"/>
@@ -3469,7 +3500,7 @@
     <row r="371">
       <c r="A371" s="0"/>
       <c r="B371" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C371" s="0"/>
       <c r="D371" s="0"/>
@@ -3478,7 +3509,7 @@
     <row r="372">
       <c r="A372" s="0"/>
       <c r="B372" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C372" s="0"/>
       <c r="D372" s="0"/>
@@ -3487,7 +3518,7 @@
     <row r="373">
       <c r="A373" s="0"/>
       <c r="B373" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C373" s="0"/>
       <c r="D373" s="0"/>
@@ -3496,11 +3527,20 @@
     <row r="374">
       <c r="A374" s="0"/>
       <c r="B374" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C374" s="0"/>
       <c r="D374" s="0"/>
       <c r="E374" s="0"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="0"/>
+      <c r="B375" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C375" s="0"/>
+      <c r="D375" s="0"/>
+      <c r="E375" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
